--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Vendée/Liste_des_villes_et_villages_fleuris_de_la_Vendée.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Vendée/Liste_des_villes_et_villages_fleuris_de_la_Vendée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Vendée dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Vendée, en Pays de la Loire.
-En 2022, 63 communes du département figurent au palmarès du concours[1], soit une commune de plus par rapport aux résultats de 2021.
+En 2022, 63 communes du département figurent au palmarès du concours, soit une commune de plus par rapport aux résultats de 2021.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,23 +524,174 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 63 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 63 communes sont réparties comme suit :
 4 fleurs : 4 communes. 
 3 fleurs : 22 communes.
 2 fleurs : 15 communes.
-1 fleur : 22 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Vendée labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 22 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Vendée labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Roche-sur-Yon
 Les Lucs-sur-Boulogne
 Notre-Dame-de-Monts
 Saint-Jean-de-Monts
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Beauvoir-sur-Mer
 Brétignolles-sur-Mer
 Chantonnay
@@ -551,7 +714,47 @@
 Saint-Laurent-sur-Sèvre
 Talmont-Saint-Hilaire
 Venansault
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aizenay
 Beaurepaire
 Chaillé-les-Marais
@@ -567,7 +770,47 @@
 Saint-Vincent-sur-Jard
 Soullans
 Vouvant
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antigny
 Barbâtre
 Beaufou
@@ -594,37 +837,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-La Roche-sur-Yon (2020)[2]
-Saint-Jean-de-Monts (2014)[3],[4]
-Prix nationaux
-Prix de la valorisation environnementale : Notre-Dame-de-Monts (2020)[5].</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Roche-sur-Yon (2020)
+Saint-Jean-de-Monts (2014),</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vendée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vend%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix de la valorisation environnementale : Notre-Dame-de-Monts (2020).</t>
         </is>
       </c>
     </row>
